--- a/RFID.Release001.xlsx
+++ b/RFID.Release001.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{048E68A7-35D4-4B28-A200-754BE5CC5F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58C1809-BE6C-4C52-8919-086B011477D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flowchart" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="DataTable" sheetId="4" r:id="rId2"/>
     <sheet name="Report format" sheetId="2" r:id="rId3"/>
+    <sheet name="DRAFT" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Flowchart!$A$1:$M$35</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="135">
   <si>
     <t>RFID</t>
   </si>
@@ -272,12 +273,240 @@
   <si>
     <t>Avoid Wrong Issue/ Receive</t>
   </si>
+  <si>
+    <t>GENERAL SETUP</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>WAREHOUSE</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>FULLNAME</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION1</t>
+  </si>
+  <si>
+    <t>DESCRIPTION2</t>
+  </si>
+  <si>
+    <t>ISACTIVE</t>
+  </si>
+  <si>
+    <t>ITEM GROUP</t>
+  </si>
+  <si>
+    <t>ITEM TYPE</t>
+  </si>
+  <si>
+    <t>MIN QTY</t>
+  </si>
+  <si>
+    <t>NORMAL QTY</t>
+  </si>
+  <si>
+    <t>MAX QTY</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>ADDITIONAL INFORMATION</t>
+  </si>
+  <si>
+    <t>SERIALCODE1</t>
+  </si>
+  <si>
+    <t>SERIALCODE2</t>
+  </si>
+  <si>
+    <t>SERIALCODE3</t>
+  </si>
+  <si>
+    <t>SERIALCODE4</t>
+  </si>
+  <si>
+    <t>SERIALCODE5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARCODE SERIAL </t>
+  </si>
+  <si>
+    <t>RAFIDCODE ID</t>
+  </si>
+  <si>
+    <t>SERIAL CODE 1-5</t>
+  </si>
+  <si>
+    <t>ROC NO</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>WEBSITE</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>H/P</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>8,4</t>
+  </si>
+  <si>
+    <t>VARBINARY</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>NVARCHAR</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>STOCK MOVEMENT JOURNAL MASTER</t>
+  </si>
+  <si>
+    <t>DOCUMENT REFERENCE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>JOURNAL DATE</t>
+  </si>
+  <si>
+    <t>TOTAL ITEM</t>
+  </si>
+  <si>
+    <t>TOTAL QTY</t>
+  </si>
+  <si>
+    <t>ISVOID</t>
+  </si>
+  <si>
+    <t>STOCK MOVEMENT JOURNAL DETAIL</t>
+  </si>
+  <si>
+    <t>STOCK MASTER ID</t>
+  </si>
+  <si>
+    <t>FK_1</t>
+  </si>
+  <si>
+    <t>PK, FK_1</t>
+  </si>
+  <si>
+    <t>FROM WAREHOUSE</t>
+  </si>
+  <si>
+    <t>TO WAREHOUSE</t>
+  </si>
+  <si>
+    <t>JOURNAL TYPE</t>
+  </si>
+  <si>
+    <t>1-STOCK TRANSFER, 2-STOCK ISSUE, 3-STOCK RECEIVE, 4-STOCK ADJUST, 0-OPENING</t>
+  </si>
+  <si>
+    <t>FK_2</t>
+  </si>
+  <si>
+    <t>FK_3</t>
+  </si>
+  <si>
+    <t>PERSON-IN-CHARGE</t>
+  </si>
+  <si>
+    <t>FK_4</t>
+  </si>
+  <si>
+    <t>PK,FK_2,FK_3</t>
+  </si>
+  <si>
+    <t>PK,FK_4</t>
+  </si>
+  <si>
+    <t>SEQ</t>
+  </si>
+  <si>
+    <t>ITEM CODE</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>MISCCODE</t>
+  </si>
+  <si>
+    <t>FK_5</t>
+  </si>
+  <si>
+    <t>PK,FK_5</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>1-UOM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +525,31 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -438,10 +692,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,8 +754,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1563,7 +1822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1813,42 +2074,1325 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E942C3F3-F546-4091-BBB3-72C2A82D3395}">
-  <dimension ref="C3:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63461DCD-EE3C-43F9-AFA6-1EB4C088D83A}">
+  <dimension ref="A3:K124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C5" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F14" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F15" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F26" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F27" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F36" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F37" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F50">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F51">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" t="s">
+        <v>103</v>
+      </c>
+      <c r="I51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F53">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" t="s">
+        <v>103</v>
+      </c>
+      <c r="I53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" t="s">
+        <v>103</v>
+      </c>
+      <c r="I54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F64" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F65" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H65" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J65" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K65" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H66" t="s">
+        <v>65</v>
+      </c>
+      <c r="K66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H67" t="s">
+        <v>103</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" t="s">
+        <v>103</v>
+      </c>
+      <c r="I68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69" t="s">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s">
+        <v>103</v>
+      </c>
+      <c r="I69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>70</v>
+      </c>
+      <c r="H70" t="s">
+        <v>103</v>
+      </c>
+      <c r="I70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F74" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F75" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H75" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I75" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J75" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K75" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>64</v>
+      </c>
+      <c r="H76" t="s">
+        <v>65</v>
+      </c>
+      <c r="K76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>75</v>
+      </c>
+      <c r="H77" t="s">
+        <v>103</v>
+      </c>
+      <c r="I77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78" t="s">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s">
+        <v>103</v>
+      </c>
+      <c r="I78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79" t="s">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s">
+        <v>103</v>
+      </c>
+      <c r="I79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>70</v>
+      </c>
+      <c r="H80" t="s">
+        <v>103</v>
+      </c>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81" t="s">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F84" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F85" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H85" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I85" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J85" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K85" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>64</v>
+      </c>
+      <c r="H86" t="s">
+        <v>65</v>
+      </c>
+      <c r="K86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>118</v>
+      </c>
+      <c r="H87" t="s">
+        <v>65</v>
+      </c>
+      <c r="K87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88" t="s">
+        <v>106</v>
+      </c>
+      <c r="H88" t="s">
+        <v>103</v>
+      </c>
+      <c r="I88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89" t="s">
+        <v>108</v>
+      </c>
+      <c r="H89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>109</v>
+      </c>
+      <c r="H90" t="s">
+        <v>103</v>
+      </c>
+      <c r="I90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F91">
+        <v>6</v>
+      </c>
+      <c r="G91" t="s">
+        <v>110</v>
+      </c>
+      <c r="H91" t="s">
+        <v>103</v>
+      </c>
+      <c r="I91" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F92">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
+        <v>116</v>
+      </c>
+      <c r="H92" t="s">
+        <v>65</v>
+      </c>
+      <c r="K92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F93">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>117</v>
+      </c>
+      <c r="H93" t="s">
+        <v>65</v>
+      </c>
+      <c r="K93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F94">
+        <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>111</v>
+      </c>
+      <c r="H94" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F96" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F97" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G97" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H97" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I97" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J97" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K97" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>64</v>
+      </c>
+      <c r="H98" t="s">
+        <v>65</v>
+      </c>
+      <c r="K98" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99" t="s">
+        <v>113</v>
+      </c>
+      <c r="H99" t="s">
+        <v>103</v>
+      </c>
+      <c r="I99">
+        <v>30</v>
+      </c>
+      <c r="K99" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100" t="s">
+        <v>126</v>
+      </c>
+      <c r="H100" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101" t="s">
+        <v>127</v>
+      </c>
+      <c r="H101" t="s">
+        <v>103</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>128</v>
+      </c>
+      <c r="H102" t="s">
+        <v>103</v>
+      </c>
+      <c r="I102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>129</v>
+      </c>
+      <c r="H103" t="s">
+        <v>102</v>
+      </c>
+      <c r="K103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F106" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F107" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G107" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H107" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I107" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J107" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K107" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>64</v>
+      </c>
+      <c r="H108" t="s">
+        <v>65</v>
+      </c>
+      <c r="K108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109" t="s">
+        <v>75</v>
+      </c>
+      <c r="H109" t="s">
+        <v>103</v>
+      </c>
+      <c r="I109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F110">
+        <v>3</v>
+      </c>
+      <c r="G110" t="s">
+        <v>67</v>
+      </c>
+      <c r="H110" t="s">
+        <v>65</v>
+      </c>
+      <c r="K110" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F111">
+        <v>4</v>
+      </c>
+      <c r="G111" t="s">
+        <v>133</v>
+      </c>
+      <c r="H111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F112">
+        <v>5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>78</v>
+      </c>
+      <c r="H112" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F116" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F117" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G117" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H117" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I117" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J117" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K117" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>64</v>
+      </c>
+      <c r="H118" t="s">
+        <v>65</v>
+      </c>
+      <c r="K118" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119" t="s">
+        <v>75</v>
+      </c>
+      <c r="H119" t="s">
+        <v>103</v>
+      </c>
+      <c r="I119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120" t="s">
+        <v>76</v>
+      </c>
+      <c r="H120" t="s">
+        <v>103</v>
+      </c>
+      <c r="I120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F121">
+        <v>4</v>
+      </c>
+      <c r="G121" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" t="s">
+        <v>103</v>
+      </c>
+      <c r="I121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F122">
+        <v>5</v>
+      </c>
+      <c r="G122" t="s">
+        <v>70</v>
+      </c>
+      <c r="H122" t="s">
+        <v>103</v>
+      </c>
+      <c r="I122" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F123">
+        <v>6</v>
+      </c>
+      <c r="G123" t="s">
+        <v>122</v>
+      </c>
+      <c r="H123" t="s">
+        <v>65</v>
+      </c>
+      <c r="K123" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F124">
+        <v>7</v>
+      </c>
+      <c r="G124" t="s">
+        <v>78</v>
+      </c>
+      <c r="H124" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="DataTable!F3" display="GENERAL SETUP" xr:uid="{F5E8A1C3-AD8D-46E7-83DE-926E6C5152DC}"/>
+    <hyperlink ref="B4" location="DataTable!F14" display="COMPANY" xr:uid="{024469C5-C178-4EA8-9771-D7E11C5C5C91}"/>
+    <hyperlink ref="B5" location="DataTable!F26" display="USER" xr:uid="{D8412396-0D7B-483C-890F-150BC188FBDE}"/>
+    <hyperlink ref="B6" location="DataTable!F36" display="ITEM" xr:uid="{69AFF294-112D-466B-AE7F-FE561B54E8DF}"/>
+    <hyperlink ref="B7" location="DataTable!F64" display="ITEM GROUP" xr:uid="{F0AB7875-CA33-4BF8-955A-D8AE4104F9EE}"/>
+    <hyperlink ref="B8" location="DataTable!F74" display="ITEM TYPE" xr:uid="{537F9385-DA9F-4EAF-8587-39267F90A271}"/>
+    <hyperlink ref="B9" location="DataTable!F84" display="STOCK MOVEMENT JOURNAL MASTER" xr:uid="{E34BF52C-56E1-4DEB-BDD3-4F35C3F7F657}"/>
+    <hyperlink ref="B10" location="DataTable!F96" display="STOCK MOVEMENT JOURNAL DETAIL" xr:uid="{41375E46-4BC3-4DBB-928A-7EB981BFD5EC}"/>
+    <hyperlink ref="B11" location="DataTable!F106" display="MISCCODE" xr:uid="{7304543F-6258-4AB7-9779-7582D0C460DF}"/>
+    <hyperlink ref="B12" location="DataTable!F116" display="WAREHOUSE" xr:uid="{88886226-EC6F-47EA-AB24-491B7095A771}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2185,4 +3729,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E942C3F3-F546-4091-BBB3-72C2A82D3395}">
+  <dimension ref="C3:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>